--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\git\RediffAutomation1\src\test\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="15255" windowHeight="7560"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18975" windowHeight="10860"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
     <sheet name="Search" sheetId="2" r:id="rId2"/>
     <sheet name="Cart" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -63,18 +68,9 @@
     <t>dff</t>
   </si>
   <si>
-    <t>learn123</t>
-  </si>
-  <si>
-    <t>qtpworld2008@gmail.com</t>
-  </si>
-  <si>
     <t>dfdd</t>
   </si>
   <si>
-    <t>qtpworld2008</t>
-  </si>
-  <si>
     <t>Execute_Flag</t>
   </si>
   <si>
@@ -145,12 +141,21 @@
   </si>
   <si>
     <t>Flood and Fire</t>
+  </si>
+  <si>
+    <t>honeydewz24@rediffmail.com</t>
+  </si>
+  <si>
+    <t>honeydewz123</t>
+  </si>
+  <si>
+    <t>honeydewz</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -220,6 +225,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -266,7 +279,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -298,9 +311,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -332,6 +346,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -507,11 +522,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -519,7 +534,7 @@
     <col min="2" max="2" width="13.5703125" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
     <col min="4" max="4" width="15.5703125" customWidth="1"/>
-    <col min="5" max="5" width="27.28515625" customWidth="1"/>
+    <col min="5" max="5" width="28.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.5703125" customWidth="1"/>
     <col min="7" max="7" width="50.5703125" customWidth="1"/>
   </cols>
@@ -529,13 +544,13 @@
         <v>3</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>0</v>
@@ -555,10 +570,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>11</v>
@@ -578,16 +593,16 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>13</v>
@@ -601,16 +616,16 @@
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>13</v>
@@ -624,16 +639,16 @@
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>13</v>
@@ -647,14 +662,14 @@
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>13</v>
@@ -668,13 +683,13 @@
         <v>1</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2" t="s">
@@ -689,10 +704,10 @@
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -708,19 +723,19 @@
         <v>1</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -734,7 +749,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -755,16 +770,16 @@
         <v>3</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>2</v>
@@ -772,39 +787,39 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="2">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="E3" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F3" s="2">
         <v>497</v>
@@ -812,19 +827,19 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B4" s="2">
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F4" s="2">
         <v>428</v>
@@ -832,19 +847,19 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B5" s="2">
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F5" s="2">
         <v>2</v>
@@ -856,7 +871,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -877,16 +892,16 @@
         <v>3</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>2</v>
@@ -894,22 +909,22 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="F2" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
